--- a/biology/Botanique/The_End_(film,_2016)/The_End_(film,_2016).xlsx
+++ b/biology/Botanique/The_End_(film,_2016)/The_End_(film,_2016).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The End est un film français réalisé par Guillaume Nicloux, sorti en e-Cinéma en 2016.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme part chasser en forêt. Son chien s'enfuit et l'homme finit par perdre son chemin. Désorienté, fatigué et sans nourriture, il erre jusqu'au soir où il trouve refuge dans une caverne. Mais au réveil, on lui a volé son fusil...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The End
@@ -560,7 +576,7 @@
 Format : couleur / noir et blanc
 Genre : drame, fantastique
 Durée : 1 heure 27
-Dates de sortie[1] :
+Dates de sortie :
  Allemagne : 14 février 2016 (Berlinale 2016)
  France : 8 avril 2016 (e-Cinéma)</t>
         </is>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Depardieu : l'homme
 Audrey Bonnet : la jeune femme
@@ -626,13 +644,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Après Valley of Love (2015), Gérard Depardieu et Guillaume Nicloux ont voulu travailler à nouveau ensemble très rapidement. Le projet The End s'est ainsi monté très vite. C'est pour cela que la sortie en e-Cinéma, moins lourd à gérer qu'une sortie en salles, a été choisie par la productrice Sylvie Pialat. The End est donc le premier projet français entièrement produit pour le e-Cinéma[2].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Après Valley of Love (2015), Gérard Depardieu et Guillaume Nicloux ont voulu travailler à nouveau ensemble très rapidement. Le projet The End s'est ainsi monté très vite. C'est pour cela que la sortie en e-Cinéma, moins lourd à gérer qu'une sortie en salles, a été choisie par la productrice Sylvie Pialat. The End est donc le premier projet français entièrement produit pour le e-Cinéma.
 L'idée de l'intrigue principale est venue en rêve à Guillaume Nicloux :
-« Un matin je me suis réveillé et j’avais fait The End, en rêve. Quelque chose m’est apparu de façon assez évidente ; c’était de profiter de toutes ces rémanences pour en faire un film et proposer à Gérard d’interpréter mon rôle dans mon propre rêve. Tout ça s’est décidé très vite, parce qu’au fur et à mesure des mois, je n’avais pas trouvé le sujet pour lequel j’avais la certitude qu’il y avait quelque chose de vital à faire entre nous et qui pourrait nous permettre de nous retrouver sur un plan également de l’intimité. Ce qui avait déjà été le cas sur Valley of love[3]. »
-— Guillaume Nicloux, interview pour Allociné
-Tournage
-Le tournage a eu lieu dans la forêt de Fontainebleau et au lieu-dit "le montoir" à Vernou- La Celle sur Seine en Seine-et-Marne[2]
+« Un matin je me suis réveillé et j’avais fait The End, en rêve. Quelque chose m’est apparu de façon assez évidente ; c’était de profiter de toutes ces rémanences pour en faire un film et proposer à Gérard d’interpréter mon rôle dans mon propre rêve. Tout ça s’est décidé très vite, parce qu’au fur et à mesure des mois, je n’avais pas trouvé le sujet pour lequel j’avais la certitude qu’il y avait quelque chose de vital à faire entre nous et qui pourrait nous permettre de nous retrouver sur un plan également de l’intimité. Ce qui avait déjà été le cas sur Valley of love. »
+— Guillaume Nicloux, interview pour Allociné</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_End_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_End_(film,_2016)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu dans la forêt de Fontainebleau et au lieu-dit "le montoir" à Vernou- La Celle sur Seine en Seine-et-Marne
 </t>
         </is>
       </c>
